--- a/public/templates/test-template-all-metrics-multiple-sheets.xlsx
+++ b/public/templates/test-template-all-metrics-multiple-sheets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinoliya.grace\Desktop\EmpAPPv1\EmpAppReport-9Jul2018\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinoliya.grace\Desktop\EmpAPPv1\employee-app-report-master\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A714E6F-BC75-4F2E-91C5-26BB504F6E8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBFFF3A-6BE8-4C5A-BAD7-C512869CDF67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="834" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="834" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App Installs - 7 Days" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,16 @@
     <sheet name="Saves - 6 Months" sheetId="22" r:id="rId21"/>
     <sheet name="Top Documents - 7 Days" sheetId="23" r:id="rId22"/>
     <sheet name="Top Documents - 30 Days" sheetId="24" r:id="rId23"/>
-    <sheet name="Top Performing Users - 7 Days" sheetId="25" r:id="rId24"/>
-    <sheet name="Top Performing Users - 30 Days" sheetId="26" r:id="rId25"/>
+    <sheet name="Top Users - 7 Days" sheetId="25" r:id="rId24"/>
+    <sheet name="Top Users - 30 Days" sheetId="26" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="256">
   <si>
     <t>iOS</t>
   </si>
@@ -57,9 +62,6 @@
     <t>Android</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>${table:appinstalls7.day}</t>
   </si>
   <si>
@@ -567,12 +569,6 @@
     <t>${table:docsreadavg7.android}</t>
   </si>
   <si>
-    <t>Top Performing Documents</t>
-  </si>
-  <si>
-    <t>Channel that the Document In</t>
-  </si>
-  <si>
     <t>${table:topdocs7.channel}</t>
   </si>
   <si>
@@ -643,6 +639,180 @@
   </si>
   <si>
     <t>${table:topdocs7Date.daterange}</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Top Documents - Last 7 Days</t>
+  </si>
+  <si>
+    <t>Top Documents - Last 30 Days</t>
+  </si>
+  <si>
+    <t>Top Users - Last 7 Days</t>
+  </si>
+  <si>
+    <t>Top Users - Last 30 Days</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>${table:appinstalls7.total}</t>
+  </si>
+  <si>
+    <t>${table:appinstalls30.total}</t>
+  </si>
+  <si>
+    <t>${table:appinstalls6.total}</t>
+  </si>
+  <si>
+    <t>${table:activeusers7.total}</t>
+  </si>
+  <si>
+    <t>${table:activeusers30.total}</t>
+  </si>
+  <si>
+    <t>${table:activeusers6.total}</t>
+  </si>
+  <si>
+    <t>${table:sessions7.total}</t>
+  </si>
+  <si>
+    <t>${table:sessions30.total}</t>
+  </si>
+  <si>
+    <t>${table:sessions6.total}</t>
+  </si>
+  <si>
+    <t>${table:docsread7.total}</t>
+  </si>
+  <si>
+    <t>${table:docsread30.total}</t>
+  </si>
+  <si>
+    <t>${table:articlesread6.total}</t>
+  </si>
+  <si>
+    <t>${table:shares7.total}</t>
+  </si>
+  <si>
+    <t>${table:shares30.total}</t>
+  </si>
+  <si>
+    <t>${table:shares6.total}</t>
+  </si>
+  <si>
+    <t>${table:comments7.total}</t>
+  </si>
+  <si>
+    <t>${table:comments30.total}</t>
+  </si>
+  <si>
+    <t>${table:comments6.total}</t>
+  </si>
+  <si>
+    <t>${table:saves7.total}</t>
+  </si>
+  <si>
+    <t>${table:saves30.total}</t>
+  </si>
+  <si>
+    <t>${table:saves6.total}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg7.total}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg30.total}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg6.total}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg7.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg30.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:sessionsavg6.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:docsreadavg7.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:docsreadavg7.total}</t>
+  </si>
+  <si>
+    <t>${table:docsreadavg30.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:docsreadavg30.total}</t>
+  </si>
+  <si>
+    <t>${table:articlesreadavg6.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:articlesreadavg6.total}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg7.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg7.total}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg30.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg30.total}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg6.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:sharesavg6.total}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg7.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg7.total}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg30.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg30.total}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg6.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:commentsavg6.total}</t>
+  </si>
+  <si>
+    <t>${table:savesavg7.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:savesavg7.total}</t>
+  </si>
+  <si>
+    <t>${table:savesavg30.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:savesavg30.total}</t>
+  </si>
+  <si>
+    <t>${table:savesavg6.totalAvg}</t>
+  </si>
+  <si>
+    <t>${table:savesavg6.total}</t>
   </si>
   <si>
     <t>${table:topdocs30Date.daterange}</t>
@@ -750,7 +920,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -810,6 +980,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -860,7 +1048,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -879,10 +1067,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +1188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>App Installs - Last 7 days</a:t>
+              <a:t>App Installs - Last 7 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1364,7 +1572,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average App Sessions - Past 30 days</a:t>
+              <a:t>Average App Sessions - Last 30 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1381,7 +1589,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'App Sessions - 30 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1403,7 +1619,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1412,7 +1628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E6AD-40E2-AC13-801A8BCAA60E}"/>
+              <c16:uniqueId val="{00000000-BF1F-40A8-8603-52BB446B1777}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1420,7 +1636,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'App Sessions - 30 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1442,7 +1666,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1451,7 +1675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E6AD-40E2-AC13-801A8BCAA60E}"/>
+              <c16:uniqueId val="{00000001-BF1F-40A8-8603-52BB446B1777}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1493,7 +1717,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1543,7 +1767,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>App Sessions - 6 months</a:t>
+              <a:t>App Sessions - Last 6 Months</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1738,7 +1962,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average App Sessions - 6 months</a:t>
+              <a:t>Average App Sessions - Last 6 Months</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1785,7 +2009,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1832,7 +2056,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1883,7 +2107,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1963,7 +2187,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 7 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1994,7 +2226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA05-4591-84C3-D6A30F14A2A5}"/>
+              <c16:uniqueId val="{00000000-86EA-4F3E-9B34-DFC07BE3208F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2002,7 +2234,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 7 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2033,7 +2273,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FA05-4591-84C3-D6A30F14A2A5}"/>
+              <c16:uniqueId val="{00000001-86EA-4F3E-9B34-DFC07BE3208F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2155,7 +2395,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 7 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2177,7 +2425,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2186,7 +2434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-991A-4BAA-AEE6-7965D3A43F17}"/>
+              <c16:uniqueId val="{00000000-169C-4E06-AE0D-C2E309F750CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2194,7 +2442,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 7 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2216,7 +2472,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2225,7 +2481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-991A-4BAA-AEE6-7965D3A43F17}"/>
+              <c16:uniqueId val="{00000001-169C-4E06-AE0D-C2E309F750CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2267,7 +2523,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2325,7 +2581,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> - Past 30</a:t>
+              <a:t> - Last 30</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2347,7 +2603,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 30 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2378,7 +2642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-831D-4AC8-A43B-E60D156DEF3B}"/>
+              <c16:uniqueId val="{00000000-68E1-4454-AE97-0E4B2DBC0176}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2386,7 +2650,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 30 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2417,7 +2689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-831D-4AC8-A43B-E60D156DEF3B}"/>
+              <c16:uniqueId val="{00000001-68E1-4454-AE97-0E4B2DBC0176}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2521,11 +2793,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> L</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Past 30</a:t>
+              <a:t>ast 30</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2547,7 +2819,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 30 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2569,7 +2849,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2578,7 +2858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA64-4B26-B465-0EC63A53CC79}"/>
+              <c16:uniqueId val="{00000000-4DD6-484A-8DDD-F53FBB5576EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2586,7 +2866,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 30 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2608,7 +2896,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2617,7 +2905,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA64-4B26-B465-0EC63A53CC79}"/>
+              <c16:uniqueId val="{00000001-4DD6-484A-8DDD-F53FBB5576EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2659,7 +2947,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2713,7 +3001,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Read - 6 Months</a:t>
+              <a:t> Read - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2731,7 +3019,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 6 Months'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2762,7 +3058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A76-4DC1-9814-CACB3D2F849E}"/>
+              <c16:uniqueId val="{00000000-6380-4D20-9391-2F71EBD25630}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2770,7 +3066,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 6 Months'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2801,7 +3105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A76-4DC1-9814-CACB3D2F849E}"/>
+              <c16:uniqueId val="{00000001-6380-4D20-9391-2F71EBD25630}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2905,7 +3209,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Read - 6 Months</a:t>
+              <a:t> Read - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2923,7 +3227,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 6 Months'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2945,7 +3257,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2954,7 +3266,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C23-4710-B76B-C2DE2E4D5DF9}"/>
+              <c16:uniqueId val="{00000002-FBED-4412-9311-E4DABC9954BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2962,7 +3274,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Articles Read - 6 Months'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -2984,7 +3304,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2993,7 +3313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C23-4710-B76B-C2DE2E4D5DF9}"/>
+              <c16:uniqueId val="{00000003-FBED-4412-9311-E4DABC9954BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3035,7 +3355,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3084,12 +3404,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Articles</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - Last 7 Days</a:t>
+              <a:t>Number of Shares - Last 7 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3107,7 +3423,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 7 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3138,7 +3462,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF94-4AD7-ABEF-BE0492E0E657}"/>
+              <c16:uniqueId val="{00000000-0844-4A9B-B7D5-42E66B6D4F35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3146,7 +3470,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 7 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3177,7 +3509,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF94-4AD7-ABEF-BE0492E0E657}"/>
+              <c16:uniqueId val="{00000001-0844-4A9B-B7D5-42E66B6D4F35}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3269,11 +3601,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>App Installs - Past 30</a:t>
+              <a:t>App Installs - Last 30</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> days</a:t>
+              <a:t> Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3469,11 +3801,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Articles</a:t>
+              <a:t>Average Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - Last 7 Days</a:t>
+              <a:t> of Shares - Last 7 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3491,7 +3823,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 7 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3513,7 +3853,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3522,7 +3862,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1768-4B74-98CF-7F0FD1318511}"/>
+              <c16:uniqueId val="{00000000-40C6-47A5-9AEA-64E1ED72937D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3530,7 +3870,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 7 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3552,7 +3900,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3561,7 +3909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1768-4B74-98CF-7F0FD1318511}"/>
+              <c16:uniqueId val="{00000001-40C6-47A5-9AEA-64E1ED72937D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3603,7 +3951,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3652,12 +4000,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Articles</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - Past 30 Days</a:t>
+              <a:t>Number of Shares - Last 30 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3675,7 +4019,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 30 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3706,7 +4058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F7B3-4902-BDE1-C09635377CFB}"/>
+              <c16:uniqueId val="{00000000-0132-490B-86FD-2331CA5B2336}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3714,7 +4066,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 30 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3745,7 +4105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F7B3-4902-BDE1-C09635377CFB}"/>
+              <c16:uniqueId val="{00000001-0132-490B-86FD-2331CA5B2336}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3837,11 +4197,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Articles</a:t>
+              <a:t>Average Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - Past 30 Days</a:t>
+              <a:t> of Shares - Last 30 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3859,7 +4219,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 30 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3881,7 +4249,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3890,7 +4258,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBC9-4A45-AD36-6CA09F769878}"/>
+              <c16:uniqueId val="{00000000-977A-4C8E-845D-17724618770F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3898,7 +4266,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 30 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -3920,7 +4296,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3929,7 +4305,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BBC9-4A45-AD36-6CA09F769878}"/>
+              <c16:uniqueId val="{00000001-977A-4C8E-845D-17724618770F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3971,7 +4347,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4020,12 +4396,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Articles</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - 6 Months</a:t>
+              <a:t>Number of Shares - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4043,7 +4415,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 6 Months'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4074,7 +4454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5996-409A-84E0-52F72C228C21}"/>
+              <c16:uniqueId val="{00000000-D135-4827-92EF-858A8F7ADEA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4082,7 +4462,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 6 Months'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4113,7 +4501,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5996-409A-84E0-52F72C228C21}"/>
+              <c16:uniqueId val="{00000001-D135-4827-92EF-858A8F7ADEA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4209,15 +4597,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Articles</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Shares - 6 Months</a:t>
+              <a:t> Number of Shares - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4235,7 +4615,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Shares - 6 Months'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4257,7 +4645,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4266,7 +4654,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B4D-44D4-B794-559E7B86AC63}"/>
+              <c16:uniqueId val="{00000000-EA7A-452C-9AFC-CF0B4C214B29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4274,7 +4662,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Shares - 6 Months'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4296,7 +4692,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4305,7 +4701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B4D-44D4-B794-559E7B86AC63}"/>
+              <c16:uniqueId val="{00000001-EA7A-452C-9AFC-CF0B4C214B29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4347,7 +4743,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4397,7 +4793,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comments - Last 7 Days</a:t>
+              <a:t>Number of Comments - Last 7 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4414,7 +4810,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 7 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4445,7 +4849,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC0F-482F-ABEF-E8B7D9D2978E}"/>
+              <c16:uniqueId val="{00000000-B964-4B30-8A14-6BD870B18ED3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4453,7 +4857,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 7 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4484,7 +4896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC0F-482F-ABEF-E8B7D9D2978E}"/>
+              <c16:uniqueId val="{00000001-B964-4B30-8A14-6BD870B18ED3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4576,7 +4988,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Comments - Last</a:t>
+              <a:t>Average Number of Comments - Last</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4601,7 +5013,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 7 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4623,7 +5043,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4632,7 +5052,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E67-45C7-8D24-9D99166CD5C8}"/>
+              <c16:uniqueId val="{00000000-C4A9-4668-BD76-0381AB85AE36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4640,7 +5060,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 7 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4662,7 +5090,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4671,7 +5099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E67-45C7-8D24-9D99166CD5C8}"/>
+              <c16:uniqueId val="{00000001-C4A9-4668-BD76-0381AB85AE36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4713,7 +5141,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4763,7 +5191,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comments - Past 30 Days</a:t>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comments - Last 30 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4780,7 +5216,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 30 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4811,7 +5255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E32-4B12-8062-2F0251E46983}"/>
+              <c16:uniqueId val="{00000000-6F8B-4BE5-BA49-13F66A892F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4819,7 +5263,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 30 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4850,7 +5302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E32-4B12-8062-2F0251E46983}"/>
+              <c16:uniqueId val="{00000001-6F8B-4BE5-BA49-13F66A892F8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4942,7 +5394,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Comments - Past</a:t>
+              <a:t>Average Number of Comments - Last</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4967,7 +5419,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 30 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4989,7 +5449,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4998,7 +5458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-56F5-4192-95AA-F03A4280481F}"/>
+              <c16:uniqueId val="{00000000-5BFB-490F-A855-3CCE6B6A649B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5006,7 +5466,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 30 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5028,7 +5496,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5037,7 +5505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-56F5-4192-95AA-F03A4280481F}"/>
+              <c16:uniqueId val="{00000001-5BFB-490F-A855-3CCE6B6A649B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5079,7 +5547,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5129,7 +5597,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comments - 6</a:t>
+              <a:t>Number of Comments - Last 6</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5151,7 +5619,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 6 Months'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5182,7 +5658,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F14-48CE-A305-9ED227A293C6}"/>
+              <c16:uniqueId val="{00000000-BC8A-4CF2-BD91-2CD41B69E4F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5190,7 +5666,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 6 Months'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5221,7 +5705,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2F14-48CE-A305-9ED227A293C6}"/>
+              <c16:uniqueId val="{00000001-BC8A-4CF2-BD91-2CD41B69E4F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5317,7 +5801,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Installs - 6 Months</a:t>
+              <a:t> Installs - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5513,7 +5997,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Comments - 6</a:t>
+              <a:t>Average Number of Comments - Last 6</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5535,7 +6019,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Comments - 6 Months'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5557,7 +6049,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5566,7 +6058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A4D-4617-8980-13920C1F9797}"/>
+              <c16:uniqueId val="{00000000-C60F-46B0-92DE-4A6951E11198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5574,7 +6066,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Comments - 6 Months'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5596,7 +6096,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5605,7 +6105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A4D-4617-8980-13920C1F9797}"/>
+              <c16:uniqueId val="{00000001-C60F-46B0-92DE-4A6951E11198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5647,7 +6147,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5697,6 +6197,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Saves</a:t>
             </a:r>
             <a:r>
@@ -5719,7 +6227,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 7 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5750,7 +6266,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2A4-4E47-B67F-5B534DCD9113}"/>
+              <c16:uniqueId val="{00000000-D98F-48F8-9526-B5C871DF08C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5758,7 +6274,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 7 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5789,7 +6313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2A4-4E47-B67F-5B534DCD9113}"/>
+              <c16:uniqueId val="{00000001-D98F-48F8-9526-B5C871DF08C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5881,7 +6405,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Number of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5911,7 +6435,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 7 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5933,7 +6465,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5942,7 +6474,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-77FB-46C4-98DE-CC0DEB82EF13}"/>
+              <c16:uniqueId val="{00000000-3D1B-4913-ACC5-CBB638571F10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5950,7 +6482,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 7 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -5972,7 +6512,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5981,7 +6521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-77FB-46C4-98DE-CC0DEB82EF13}"/>
+              <c16:uniqueId val="{00000001-3D1B-4913-ACC5-CBB638571F10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6023,7 +6563,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6073,11 +6613,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Saves</a:t>
+              <a:t>Number of Saves</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Past 30 Days</a:t>
+              <a:t> - Last 30 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6095,7 +6635,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 30 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6126,7 +6674,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D1F-4F9D-BDAB-D390B8B8DD15}"/>
+              <c16:uniqueId val="{00000000-C923-4B69-8412-923831E979A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6134,7 +6682,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 30 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6165,7 +6721,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6D1F-4F9D-BDAB-D390B8B8DD15}"/>
+              <c16:uniqueId val="{00000001-C923-4B69-8412-923831E979A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6257,11 +6813,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:t>Average Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -6269,7 +6825,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Past 30 Days</a:t>
+              <a:t> - Last 30 Days</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6287,7 +6843,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 30 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6309,7 +6873,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6318,7 +6882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-74CD-4E70-855C-69F95B8646A8}"/>
+              <c16:uniqueId val="{00000000-4B2F-4123-ADFC-6FA248D8FFCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6326,7 +6890,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 30 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6348,7 +6920,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6357,7 +6929,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-74CD-4E70-855C-69F95B8646A8}"/>
+              <c16:uniqueId val="{00000001-4B2F-4123-ADFC-6FA248D8FFCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6399,7 +6971,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6449,11 +7021,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Saves</a:t>
+              <a:t>Number of Saves</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - 6 Months</a:t>
+              <a:t> - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6471,7 +7043,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 6 Months'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6502,7 +7082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-39D7-4605-A930-A68D2F4E7EC5}"/>
+              <c16:uniqueId val="{00000000-C777-49A6-B8DE-67CF7B3EF557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6510,7 +7090,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 6 Months'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6541,7 +7129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-39D7-4605-A930-A68D2F4E7EC5}"/>
+              <c16:uniqueId val="{00000001-C777-49A6-B8DE-67CF7B3EF557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6633,11 +7221,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Average Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Saves</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - 6 Months</a:t>
+              <a:t> - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6655,7 +7251,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Saves - 6 Months'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6677,7 +7281,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6686,7 +7290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E9A2-4F8A-B0AB-6CDA35BF79F1}"/>
+              <c16:uniqueId val="{00000000-BDA6-49D6-B579-FB76C8EB4032}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6694,7 +7298,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Saves - 6 Months'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6716,7 +7328,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6725,7 +7337,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E9A2-4F8A-B0AB-6CDA35BF79F1}"/>
+              <c16:uniqueId val="{00000001-BDA6-49D6-B579-FB76C8EB4032}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6767,7 +7379,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6825,7 +7437,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> - Last 7 days</a:t>
+              <a:t> - Last 7 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7024,9 +7636,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Users - Past 30 Days</a:t>
+              <a:t> Users</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> - Last 30 Days</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7042,7 +7657,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'Active Users - 30 Days'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7073,7 +7696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB0A-46AE-9008-F7CDC7431800}"/>
+              <c16:uniqueId val="{00000002-05A5-48E0-91D2-7F11783EA2BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7081,7 +7704,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'Active Users - 30 Days'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7112,7 +7743,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CB0A-46AE-9008-F7CDC7431800}"/>
+              <c16:uniqueId val="{00000003-05A5-48E0-91D2-7F11783EA2BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7125,11 +7756,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2140771944"/>
-        <c:axId val="-2142731992"/>
+        <c:axId val="-2143125816"/>
+        <c:axId val="-2121131720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2140771944"/>
+        <c:axId val="-2143125816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,7 +7770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142731992"/>
+        <c:crossAx val="-2121131720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7147,7 +7778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142731992"/>
+        <c:axId val="-2121131720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7158,7 +7789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140771944"/>
+        <c:crossAx val="-2143125816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7166,11 +7797,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln w="38100">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -7213,7 +7839,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Users - 6 Months</a:t>
+              <a:t> Users - Last 6 Months</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7409,7 +8035,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>App Sessions - Last 7 days</a:t>
+              <a:t>App Sessions - Last 7 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7604,7 +8230,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average App Sessions - Last 7 days</a:t>
+              <a:t>Average App Sessions - Last 7 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7621,7 +8247,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ios</c:v>
+            <c:strRef>
+              <c:f>'App Sessions - 7 Days'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7643,7 +8277,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7652,7 +8286,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8458-41CF-83D5-067DA7DCC11E}"/>
+              <c16:uniqueId val="{00000000-2C1F-4ACC-816B-04FD1AC1A03D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7660,7 +8294,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>android</c:v>
+            <c:strRef>
+              <c:f>'App Sessions - 7 Days'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Android</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7682,7 +8324,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7691,7 +8333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8458-41CF-83D5-067DA7DCC11E}"/>
+              <c16:uniqueId val="{00000001-2C1F-4ACC-816B-04FD1AC1A03D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7733,7 +8375,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7783,7 +8425,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>App Sessions - Past 30 days</a:t>
+              <a:t>App Sessions - Last 30 Days</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8433,16 +9075,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>41275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8512,16 +9154,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8555,16 +9197,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8593,16 +9235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8674,16 +9316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8718,13 +9360,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676276</xdr:colOff>
+      <xdr:colOff>676277</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8756,13 +9398,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>1609726</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8805,7 +9447,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -8836,16 +9478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8886,7 +9528,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -8917,16 +9559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8967,7 +9609,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
@@ -8998,16 +9640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>191558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9079,16 +9721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>201082</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9123,13 +9765,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>1609724</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -9160,16 +9802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7143</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>197643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9241,14 +9883,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9363,16 +10005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>202405</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>1600199</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>188118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9413,7 +10055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
@@ -9444,14 +10086,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16669</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1609724</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
@@ -9535,7 +10177,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>822326</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9572,26 +10214,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>822325</xdr:colOff>
+      <xdr:colOff>838198</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1619249</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5756C54-CFAB-4E93-939D-186EA6E8C5D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9613,13 +10257,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>822325</xdr:colOff>
+      <xdr:colOff>822326</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>62442</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609726</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9660,7 +10304,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -9689,16 +10333,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9733,13 +10377,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>835025</xdr:colOff>
+      <xdr:colOff>835026</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609726</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9771,15 +10415,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>695324</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9851,16 +10495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>835025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10212,18 +10856,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.625" bestFit="1" customWidth="1"/>
@@ -10234,11 +10876,11 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
-      <c r="B2" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
@@ -10282,22 +10924,22 @@
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10305,44 +10947,50 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="3"/>
     </row>
   </sheetData>
@@ -10362,36 +11010,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94D8A4-A351-436F-97D8-D2429B5767BF}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.75" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10399,8 +11042,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10408,25 +11054,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
+      <c r="E22" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>171</v>
+      <c r="K22" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -10440,38 +11101,32 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807F6150-AF7E-4C8D-B04D-EA22194FBD38}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="1.75" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10479,8 +11134,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10488,25 +11146,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
+      <c r="E22" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>139</v>
+      <c r="K22" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -10520,38 +11193,33 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3896463E-43F6-45BA-B991-2FAB32024C5D}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
     <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10559,8 +11227,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10568,25 +11239,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
+      <c r="E22" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>142</v>
+      <c r="K22" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -10600,38 +11286,34 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4683122-F13D-4783-9A00-B2C9DDF01804}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="10" width="21.25" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="17.5" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.625" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10639,8 +11321,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10648,25 +11333,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
+      <c r="E22" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>145</v>
+      <c r="K22" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -10681,36 +11381,34 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477A4BFC-293E-406A-A3F1-5E94760DD1AE}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
     <col min="9" max="9" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="10" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.75" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10718,8 +11416,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10727,25 +11428,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>53</v>
+      <c r="E22" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>148</v>
+      <c r="K22" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -10759,37 +11475,32 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C79F0C2-284E-46F9-95C5-D9B5A46997C2}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="15.125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16.125" customWidth="1"/>
     <col min="14" max="14" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10797,8 +11508,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10806,25 +11520,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>56</v>
+      <c r="E22" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>151</v>
+      <c r="K22" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10838,36 +11567,33 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6255DFA4-F5BD-4318-AC7C-6ADB747FFC47}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="17.875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10875,8 +11601,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10884,25 +11613,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
+      <c r="E22" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>154</v>
+      <c r="K22" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -10916,38 +11660,35 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFB8AC2-C644-44A0-B8B7-2913063686EB}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="2" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -10955,8 +11696,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -10964,25 +11708,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
+      <c r="E22" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>157</v>
+      <c r="K22" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -10990,42 +11749,42 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B044943C-9E15-4892-8B11-DAC66F56BB35}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="17.125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" customWidth="1"/>
     <col min="14" max="14" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11033,8 +11792,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -11042,25 +11804,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
+      <c r="E22" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>160</v>
+      <c r="K22" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -11074,38 +11851,33 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02435017-AD80-466E-84BC-8B71A822B3AC}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11113,8 +11885,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -11122,25 +11897,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
+      <c r="E22" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>163</v>
+      <c r="K22" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -11154,7 +11944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -11162,21 +11952,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="B2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>0</v>
@@ -11184,16 +11972,22 @@
       <c r="D21" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
+      <c r="E22" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11213,37 +12007,33 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019AF990-9EF1-4B5A-A561-52A55C330FE5}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.625" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="16.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
     <col min="14" max="14" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11251,8 +12041,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -11260,25 +12053,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
+      <c r="E22" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>166</v>
+      <c r="K22" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -11292,38 +12100,33 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CF0A85-A987-44C5-A087-3A27433B8949}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="17.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" customWidth="1"/>
     <col min="14" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:7">
-      <c r="E2" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11331,8 +12134,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -11340,25 +12146,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
+      <c r="E22" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>169</v>
+      <c r="K22" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -11372,83 +12193,86 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00BCE90-8F56-4CD7-A79C-BD838121473F}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="C2" s="17" t="s">
+    <row r="1" spans="1:7">
+      <c r="C1" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10"/>
+      <c r="C3" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11457,83 +12281,92 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA537C8-6813-4E1E-B472-F0B8B0EF72F0}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="23"/>
+    </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
-        <v>172</v>
-      </c>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11541,161 +12374,173 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED9887-EAF9-401F-9091-D81D24505321}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>123</v>
-      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="L23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11704,161 +12549,174 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E264C6-F834-4EFB-AAE0-C549A2ACBA95}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="23"/>
+    </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="M22" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11867,29 +12725,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="B2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11897,16 +12753,22 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
+      <c r="E22" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -11925,29 +12787,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="B2" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -11955,16 +12815,22 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
+      <c r="E22" s="18" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -11987,32 +12853,30 @@
   <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -12020,16 +12884,22 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -12048,29 +12918,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="B2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -12078,16 +12946,22 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
+      <c r="E22" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -12106,39 +12980,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -12146,8 +13018,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -12155,25 +13030,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>23</v>
+      <c r="K22" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -12193,39 +13083,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E2" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -12233,8 +13121,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -12242,30 +13133,218 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="K22" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="9:12">
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="9:12">
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="9:12">
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="9:12">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="9:12">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="9:12">
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="9:12">
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="9:12">
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="9:12">
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="9:12">
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="9:12">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="9:12">
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="9:12">
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="9:12">
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="9:12">
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="9:12">
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="9:12">
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="9:12">
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="9:12">
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:J2"/>
+  <mergeCells count="1">
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12281,38 +13360,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>0</v>
@@ -12320,8 +13398,11 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -12329,25 +13410,40 @@
       <c r="J21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>38</v>
+      <c r="K22" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
